--- a/storage/data/conversations.xlsx
+++ b/storage/data/conversations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,6 +721,820 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-11-18 12:44:46</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Order Tracking</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>I can look up your order details — just send me the order ID.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>a52a5025-0af6-4d9f-b35c-290143280d98</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-11-18 12:44:52</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>That order ID didn't match our format. Please provide a valid order ID.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>a52a5025-0af6-4d9f-b35c-290143280d98</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-11-18 12:44:57</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>789789</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>The order ID you entered does not exist. Please check and try again.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>a52a5025-0af6-4d9f-b35c-290143280d98</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-11-18 12:45:04</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>I wasn't able to find an order with that ID. Could you check and send it again?</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>a52a5025-0af6-4d9f-b35c-290143280d98</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-11-18 12:45:13</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>789879</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>The order with ID 789879 was picked up at 10:52:39 PM, out for delivery at 11:10:21 PM, and was delivered at 11:17:15 PM on the same day.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>a52a5025-0af6-4d9f-b35c-290143280d98</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-11-18 12:45:18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you with Leajlak's Order Management System today?</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>a52a5025-0af6-4d9f-b35c-290143280d98</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-11-18 12:45:26</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you with Leajlak's Order Management System today?</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>a52a5025-0af6-4d9f-b35c-290143280d98</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:29:20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today with Leajlak's Order Management System?</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:31:56</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Order Tracking</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Please share your order ID so I can check the status for you.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:32:24</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>789879</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>The data you were trying to find was not found in the database. Please try again with a different request.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:33:51</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>order tracking</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Sure! What's your order ID? I'll get the status for you.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:35:07</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>789879</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>The data you were trying to find was not found in the database. Please try again with a different request.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:37:46</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Order Tracking</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Sure! What's your order ID? I'll get the status for you.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:37:58</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>789879</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Order 789879 was picked up at 10:52:39 PM, went out for delivery at 11:10:21 PM, and was successfully delivered at 11:17:15 PM on the same day.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:38:10</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>order tracking</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>I'd be happy to check the status for you. Could you provide your order ID?</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:38:18</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sdsd</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Hmm, that doesn't seem like a valid order ID. Could you enter it again?</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:38:22</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>sdf</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>I wasn't able to find an order with that ID. Could you check and send it again?</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:38:29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>789879</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Order ID 789879 was picked up from the merchant/warehouse at 10:52:39 PM on September 12, 2024. It was out for delivery at 11:10:21 PM and then successfully delivered at 11:17:15 PM on the same day.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:38:34</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today regarding Leajlak's Order Management System? Let me know if you have any questions or need help with anything specific.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:41:22</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Order Tracking</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Please share your order ID so I can check the status for you.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>584b1fc5-652b-49ea-a85d-fe3793c48879</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:41:31</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>789879</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>The order with ID 789879 was picked up from the merchant at 10:52:39 PM, went out for delivery at 11:10:21 PM, and was successfully delivered at 11:17:15 PM on the same day.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>584b1fc5-652b-49ea-a85d-fe3793c48879</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:41:35</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today regarding Leajlak's Order Management System?</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>584b1fc5-652b-49ea-a85d-fe3793c48879</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:41:49</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>latest orderstatus</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>The latest order status is "Client return decline" for order ID 1544593.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>584b1fc5-652b-49ea-a85d-fe3793c48879</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:41:59</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today with Leajlak's Order Management System?</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>584b1fc5-652b-49ea-a85d-fe3793c48879</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:42:06</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>track ord</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>I'd be happy to check the status for you. Could you provide your order ID?</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>584b1fc5-652b-49ea-a85d-fe3793c48879</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:42:11</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>efdf</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Hmm, that doesn't seem like a valid order ID. Could you enter it again?</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>584b1fc5-652b-49ea-a85d-fe3793c48879</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:42:13</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>sd</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>I couldn't verify that order ID. Please make sure it's correct and resend it.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>584b1fc5-652b-49ea-a85d-fe3793c48879</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:42:16</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>8794561897465</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>The order ID you entered does not exist. Please check and try again.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>584b1fc5-652b-49ea-a85d-fe3793c48879</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:42:20</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>789654568745</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>The order ID you entered does not exist. Please check and try again.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>584b1fc5-652b-49ea-a85d-fe3793c48879</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:42:25</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>789789</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>The order ID you entered does not exist. Please check and try again.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>584b1fc5-652b-49ea-a85d-fe3793c48879</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:42:30</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>789879</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Order ID 789879 was picked up from the merchant at 10:52:39 PM on 2024-09-12, out for delivery at 11:10:21 PM, and successfully delivered at 11:17:15 PM on the same day.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>584b1fc5-652b-49ea-a85d-fe3793c48879</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:42:36</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today with Leajlak's Order Management System?</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>584b1fc5-652b-49ea-a85d-fe3793c48879</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:42:41</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Order Tracking</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sure! I can help you track your order. Please share your order ID.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>584b1fc5-652b-49ea-a85d-fe3793c48879</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:42:48</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>It looks like the order ID you provided isn't valid. Please check and share a correct order ID.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>584b1fc5-652b-49ea-a85d-fe3793c48879</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:52:07</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today regarding Leajlak's Order Management System?</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:52:11</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Order Tracking</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sure! What's your order ID? I'll get the status for you.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-11-18 14:52:16</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today with Leajlak's Order Management System?</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/storage/data/conversations.xlsx
+++ b/storage/data/conversations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1535,6 +1535,182 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-11-18 15:19:54</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>hi</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Hello! How can I assist you today with Leajlak's Order Management System services?</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>94ac6076-dadc-4f2e-921a-7d15d18b7ad8</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-11-18 15:20:01</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Order Tracking</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Sure! What's your order ID? I'll get the status for you.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>bf2d902b-b291-4197-9fe0-f1f5bf6d7ba2</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-11-18 15:20:17</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>789879</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>The data you were trying to find was not found in the database. Please try again with a different request.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8123b9f4-2520-47eb-afbd-8f79d2239b8c</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-11-18 15:20:32</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Order Tracking</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Please share your order ID so I can check the status for you.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>81fad3f8-c4b4-49c3-bdf8-5cb4b82ebeec</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-11-18 15:20:41</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>789879</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>The data you were trying to find was not found in the database. Please try again with a different request.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6f407e19-c34d-4d5a-a0d2-98d12625f9d8</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-11-18 15:20:53</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Order Tracking</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Please share your order ID so I can check the status for you.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-11-18 15:21:00</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>789879</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Order ID 789879 was picked up from the merchant at 10:52:39 PM on 2024-09-12. It was then out for delivery at 11:10:21 PM and successfully delivered at 11:17:15 PM on the same day.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4ed3aca2-6f60-4cfd-9e6c-66cf666ee0a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-11-18 15:26:13</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Order Tracking</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Please share your order ID so I can check the status for you.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7af64f54-6978-425c-8d63-92f5078ad312</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
